--- a/biology/Médecine/Épilepsie_myoclonique_juvénile/Épilepsie_myoclonique_juvénile.xlsx
+++ b/biology/Médecine/Épilepsie_myoclonique_juvénile/Épilepsie_myoclonique_juvénile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_myoclonique_juv%C3%A9nile</t>
+          <t>Épilepsie_myoclonique_juvénile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilepsie myoclonique juvénile est l'une des nombreuses formes de l'épilepsie, qui se manifeste chez l'adolescent et se traduit par un électroencéphalogramme anormal. Elle suit généralement une évolution favorable.
 Les crises sont courtes (généralement de une à cinq minutes) et surviennent en général en cas de manque de sommeil, d'où son appellation d'« épilepsie du matin ». 
